--- a/backend/src/main/resources/excel/result.xlsx
+++ b/backend/src/main/resources/excel/result.xlsx
@@ -12,36 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ФИО_Преподавателя</t>
   </si>
   <si>
-    <t>Курс_1</t>
+    <t>Курс</t>
   </si>
   <si>
     <t>Количество_Студентов</t>
   </si>
   <si>
+    <t>Никитин Олег Викторович</t>
+  </si>
+  <si>
+    <t>Программирование на Java 11</t>
+  </si>
+  <si>
+    <t>WEB-программирование. Основы. (HTML, CSS)</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
     <t>Средняя_оценка</t>
   </si>
   <si>
-    <t>Курс_4</t>
-  </si>
-  <si>
-    <t>Никитин Олег Викторович</t>
-  </si>
-  <si>
-    <t>Программирование на Java 11</t>
-  </si>
-  <si>
-    <t>java.util.stream.ReferencePipeline$3@2f1e6f31</t>
-  </si>
-  <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>java.util.stream.ReferencePipeline$3@4d7b5e23</t>
+    <t>Рудников Кирилл Глебович</t>
+  </si>
+  <si>
+    <t>75.03844</t>
+  </si>
+  <si>
+    <t>Боканов Александр Дмитриевич</t>
+  </si>
+  <si>
+    <t>81.67057</t>
+  </si>
+  <si>
+    <t>75.580765</t>
   </si>
 </sst>
 </file>
@@ -155,24 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyNumberFormat="true">
@@ -202,10 +199,6 @@
     <col min="1" max="1" width="30.0" customWidth="true"/>
     <col min="2" max="2" width="30.0" customWidth="true"/>
     <col min="3" max="3" width="30.0" customWidth="true"/>
-    <col min="4" max="4" width="30.0" customWidth="true"/>
-    <col min="5" max="5" width="30.0" customWidth="true"/>
-    <col min="6" max="6" width="30.0" customWidth="true"/>
-    <col min="7" max="7" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -218,40 +211,71 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/main/resources/excel/result.xlsx
+++ b/backend/src/main/resources/excel/result.xlsx
@@ -41,16 +41,16 @@
     <t>Рудников Кирилл Глебович</t>
   </si>
   <si>
-    <t>75.03844</t>
+    <t>78.2826</t>
   </si>
   <si>
     <t>Боканов Александр Дмитриевич</t>
   </si>
   <si>
-    <t>81.67057</t>
-  </si>
-  <si>
-    <t>75.580765</t>
+    <t>80.128555</t>
+  </si>
+  <si>
+    <t>76.70576</t>
   </si>
 </sst>
 </file>
